--- a/site_dados.xlsx
+++ b/site_dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="435">
   <si>
     <t>vaga</t>
   </si>
@@ -28,148 +28,1353 @@
     <t>link</t>
   </si>
   <si>
-    <t>Auxiliar de Operações</t>
-  </si>
-  <si>
-    <t>Analista Financeiro</t>
-  </si>
-  <si>
-    <t>Estagiário Financeiro</t>
+    <t>Assessor de Investimentos - AAI / CPA</t>
+  </si>
+  <si>
+    <t>ASSESSOR DE INVESTIMENTOS JÚNIOR</t>
+  </si>
+  <si>
+    <t>Trader (Especialista em Renda Fixa &amp; Multimercado)</t>
+  </si>
+  <si>
+    <t>Analista de risco - 1 vaga (Rio de Janeiro/RJ) = 20013</t>
+  </si>
+  <si>
+    <t>Analista de Processos Operacionais Júnior</t>
+  </si>
+  <si>
+    <t>Analista de Investimentos</t>
+  </si>
+  <si>
+    <t>Gerente - Due Diligence Tributária - Indiretos</t>
+  </si>
+  <si>
+    <t>Consultor - Due Diligence Financeira e Contábil</t>
+  </si>
+  <si>
+    <t>Consultor Senior de Transaçöes Corporativas</t>
+  </si>
+  <si>
+    <t>Advogado Júnior P.I/T.I</t>
+  </si>
+  <si>
+    <t>Head of Finance</t>
+  </si>
+  <si>
+    <t>Estágio em Direito</t>
+  </si>
+  <si>
+    <t>Analista de Tesouraria</t>
+  </si>
+  <si>
+    <t>Estagiario (Seasonal Paid Intern)</t>
+  </si>
+  <si>
+    <t>Assessor de Investimentos</t>
+  </si>
+  <si>
+    <t>Analista de Operações Júnior</t>
+  </si>
+  <si>
+    <t>Especialista de Investimento</t>
+  </si>
+  <si>
+    <t>Analista de Rentabilidade</t>
+  </si>
+  <si>
+    <t>Analista de Performance Digital</t>
+  </si>
+  <si>
+    <t>Analista de Investimentos Sênior</t>
+  </si>
+  <si>
+    <t>ESTAGIÁRIO(A) DE MODELAGEM FINANCEIRA</t>
+  </si>
+  <si>
+    <t>Gerente de Produtos</t>
+  </si>
+  <si>
+    <t>Analista de Desenvolvimento Sênior</t>
+  </si>
+  <si>
+    <t>Coordenador de Marketing</t>
+  </si>
+  <si>
+    <t>Analista de Infraestrutura Sênior</t>
+  </si>
+  <si>
+    <t>Analista de Infraestrutura Pleno</t>
+  </si>
+  <si>
+    <t>Analista de Banco de Dados Pleno</t>
+  </si>
+  <si>
+    <t>Regional Asset Reliability Leader</t>
+  </si>
+  <si>
+    <t>Data Analytics Specialist</t>
+  </si>
+  <si>
+    <t>Sales Manager - Financial Intermediaries</t>
+  </si>
+  <si>
+    <t>Security Lead</t>
+  </si>
+  <si>
+    <t>Supply Chain Consultant</t>
+  </si>
+  <si>
+    <t>Estágio - Asset Management</t>
+  </si>
+  <si>
+    <t>Finance Director Brazil</t>
+  </si>
+  <si>
+    <t>Head of BXD (Brand Experience Design Team)</t>
+  </si>
+  <si>
+    <t>Director, Corporate Finance</t>
+  </si>
+  <si>
+    <t>Finance Coordinator</t>
+  </si>
+  <si>
+    <t>Head of Business Development</t>
+  </si>
+  <si>
+    <t>Junior Investment Advisor - Farmer</t>
+  </si>
+  <si>
+    <t>Estagiário Asset Management</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Upstream Specialist, Petroleum Asset eXcellence (PAX)</t>
+  </si>
+  <si>
+    <t>Regional Medical Expert, Infectious Diseases</t>
+  </si>
+  <si>
+    <t>Study Management Engineer SR</t>
+  </si>
+  <si>
+    <t>Principal Deal Manager</t>
+  </si>
+  <si>
+    <t>Contract Coordinator</t>
+  </si>
+  <si>
+    <t>AIFA - SENIOR MANAGER</t>
+  </si>
+  <si>
+    <t>Technical Project Manager - Rio</t>
+  </si>
+  <si>
+    <t>Real Estate Advisory Senior Associate</t>
+  </si>
+  <si>
+    <t>L20193 Jr. Market Intelligence Analyst</t>
+  </si>
+  <si>
+    <t>Brazilian Power Market Analyst</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Network Support Analyst (Voice).</t>
+  </si>
+  <si>
+    <t>Country Compliance Analyst</t>
+  </si>
+  <si>
+    <t>Client Services Analyst</t>
+  </si>
+  <si>
+    <t>Distribution Analyst I</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Marketing Analyst</t>
+  </si>
+  <si>
+    <t>Regional Market Intelligence, Associate</t>
+  </si>
+  <si>
+    <t>Chief Investment Officer</t>
+  </si>
+  <si>
+    <t>International Summer Job - Investment Banking</t>
+  </si>
+  <si>
+    <t>Investment Banking - Vacation Internship</t>
+  </si>
+  <si>
+    <t>Investment Banking Internship (Brazil)</t>
+  </si>
+  <si>
+    <t>Business and Investment Associate</t>
+  </si>
+  <si>
+    <t>Global Commercial Banking</t>
+  </si>
+  <si>
+    <t>Securities, Equities, Securitized Derivatives Strategists - Analyst/Associate/VP Sao Paulo</t>
+  </si>
+  <si>
+    <t>Senior Risk Specialist</t>
+  </si>
+  <si>
+    <t>Strategy &amp; Growth Operations Lead</t>
+  </si>
+  <si>
+    <t>Analista Sênior de Relação com Investidores</t>
+  </si>
+  <si>
+    <t>Estagiário Investimento</t>
+  </si>
+  <si>
+    <t>Analista de Investimentos Pleno</t>
+  </si>
+  <si>
+    <t>Consultor Senior- Due Diligence - Impostos Trabalhistas e Previdenciários</t>
+  </si>
+  <si>
+    <t>ESPECIALISTA FINANCEIRO - RELAÇÕES COM INVESTIDORES</t>
+  </si>
+  <si>
+    <t>Gerente de Trading</t>
+  </si>
+  <si>
+    <t>Engenheiro Eletricista</t>
+  </si>
+  <si>
+    <t>Consultor Sênior - Compras Estratégicas - Supply Chain</t>
+  </si>
+  <si>
+    <t>Cientista de Dados Advanced Analytics</t>
+  </si>
+  <si>
+    <t>Analista de Compliance - Instituição do Mercado Financeiro</t>
+  </si>
+  <si>
+    <t>Supervisor Sell Out - SP Capital</t>
+  </si>
+  <si>
+    <t>Gerente de Operações</t>
+  </si>
+  <si>
+    <t>SUPERVISOR DE HIGIENE – RIO DE JANEIRO/ RJ</t>
+  </si>
+  <si>
+    <t>AIFA - ADVISORY ANALYST</t>
+  </si>
+  <si>
+    <t>Senior Research Analyst, Power and Renewables</t>
+  </si>
+  <si>
+    <t>Analista de M&amp;A (Gás e Energia)</t>
+  </si>
+  <si>
+    <t>Consultor</t>
+  </si>
+  <si>
+    <t>Support Analyst</t>
+  </si>
+  <si>
+    <t>Executivo de Território</t>
+  </si>
+  <si>
+    <t>Corporate Security Manager</t>
+  </si>
+  <si>
+    <t>Engenheiro Elétrico Botafogo</t>
+  </si>
+  <si>
+    <t>Gerente de Seção</t>
+  </si>
+  <si>
+    <t>ESPECIALISTA EM RELACIONAMENTO DIGITAL</t>
+  </si>
+  <si>
+    <t>Gerente de Operações (Inteligência Operacional e Mudanças)</t>
+  </si>
+  <si>
+    <t>Analista de Risco PL</t>
+  </si>
+  <si>
+    <t>Consultor de Analytics</t>
+  </si>
+  <si>
+    <t>Gerente de Investigação Forensic</t>
+  </si>
+  <si>
+    <t>Analista Jurídico Pleno (Trabalhista)</t>
+  </si>
+  <si>
+    <t>Analista Ambiental Pleno / Senior / Environmental Analyst</t>
+  </si>
+  <si>
+    <t>Assistente de Gerenciamento de Risco</t>
+  </si>
+  <si>
+    <t>Consultor - Supply Chain</t>
+  </si>
+  <si>
+    <t>Gerente de Controladoria</t>
+  </si>
+  <si>
+    <t>Especialista de Risco de Crédito</t>
+  </si>
+  <si>
+    <t>Especialista de Compliance</t>
+  </si>
+  <si>
+    <t>Financeiro - Analista ADS (CDD MAUA)</t>
+  </si>
+  <si>
+    <t>Consultor Sênior - Supply Chain</t>
+  </si>
+  <si>
+    <t>Analista de Risco Jr</t>
+  </si>
+  <si>
+    <t>TI_Especialista_Jaguariuna</t>
+  </si>
+  <si>
+    <t>Especialista em Liquidação e Custódia - Mercado de...</t>
+  </si>
+  <si>
+    <t>Especialista em Processos de Pós-Negociação (Merca...</t>
+  </si>
+  <si>
+    <t>ANALISTA DE IMPLANTAÇÃO</t>
+  </si>
+  <si>
+    <t>Programa Conti com Agente - Andrea Lattuf (Contabilidade)</t>
+  </si>
+  <si>
+    <t>CONSULTOR DE NEGÓCIOS</t>
+  </si>
+  <si>
+    <t>ANALISTA DE NEGÓCIOS JR - Renda Fixa</t>
+  </si>
+  <si>
+    <t>Analista de Implantação</t>
+  </si>
+  <si>
+    <t>Gerente Due Diligence Trabalhista e Previdenciária</t>
+  </si>
+  <si>
+    <t>Customer Success Analyst</t>
+  </si>
+  <si>
+    <t>Consultor Sênior Analytics</t>
   </si>
   <si>
     <t>Supervisor de Loja - Franca</t>
   </si>
   <si>
-    <t>Caixa</t>
-  </si>
-  <si>
-    <t>Caixa - Itaú Agências</t>
-  </si>
-  <si>
-    <t>CAIXA</t>
-  </si>
-  <si>
-    <t>Financeiro - Caixa</t>
-  </si>
-  <si>
-    <t>Operador de Caixa</t>
-  </si>
-  <si>
-    <t>AUXILIAR ADMINISTRATIVO</t>
-  </si>
-  <si>
-    <t>Caixa - Batatais SP</t>
-  </si>
-  <si>
-    <t>Atendente de Loja</t>
-  </si>
-  <si>
-    <t>KPMG</t>
-  </si>
-  <si>
-    <t>ICOBIT IMPERMEABILIZANTES LTDA</t>
-  </si>
-  <si>
-    <t>Confidencial Serviços LTDA</t>
-  </si>
-  <si>
-    <t>Hora da Despedida</t>
-  </si>
-  <si>
-    <t>Movida</t>
-  </si>
-  <si>
-    <t>Alluri Sports</t>
-  </si>
-  <si>
-    <t>Itaú Unibanco</t>
-  </si>
-  <si>
-    <t>Recruta Mais</t>
-  </si>
-  <si>
-    <t>Assess Casa Móveis e Decorações</t>
-  </si>
-  <si>
-    <t>TALCHÁ</t>
-  </si>
-  <si>
-    <t>Sicredi</t>
-  </si>
-  <si>
-    <t>Varejo Farmacêutico</t>
-  </si>
-  <si>
-    <t>Taquarivaí, SP</t>
+    <t>Representantes Comerciais de Cosméticos Autônomos c/ Experiência</t>
+  </si>
+  <si>
+    <t>Agile Master</t>
+  </si>
+  <si>
+    <t>Gerente Regional de Desenvolvimento Comercial</t>
+  </si>
+  <si>
+    <t>Desenvolvedor Front End (Jr, Pl e Sr)</t>
+  </si>
+  <si>
+    <t>Consultor de Desenvolvimento de Negócio Sênior</t>
+  </si>
+  <si>
+    <t>ANALISTA DE FORMALIZAÇÃO PLENO</t>
+  </si>
+  <si>
+    <t>ANALISTA INTELIGENCIA DE MERCADO I</t>
+  </si>
+  <si>
+    <t>Advogado Junior - Mercado de Capitais</t>
+  </si>
+  <si>
+    <t>Estágio em Direito - Mercado de Capitais</t>
+  </si>
+  <si>
+    <t>Advogado - Bancário/Mercado de Capitais</t>
+  </si>
+  <si>
+    <t>Analista de Atração e Seleção PL/SR</t>
+  </si>
+  <si>
+    <t>Analista Administrativo Pleno</t>
+  </si>
+  <si>
+    <t>Trainee Consultor</t>
+  </si>
+  <si>
+    <t>Consultor Júnior de Gestão de Projetos</t>
+  </si>
+  <si>
+    <t>Analista de MA</t>
+  </si>
+  <si>
+    <t>Gerente - Valuation - Real Estate</t>
+  </si>
+  <si>
+    <t>Consultor Sênior - Business Modeling</t>
+  </si>
+  <si>
+    <t>Consultor - Business Modeling</t>
+  </si>
+  <si>
+    <t>Especialista Avaliações Econômicas</t>
+  </si>
+  <si>
+    <t>Finanças</t>
+  </si>
+  <si>
+    <t>Operations Specialist 1</t>
+  </si>
+  <si>
+    <t>Analista de Wealth Management /Asset Allocation</t>
+  </si>
+  <si>
+    <t>Business Operations Manager</t>
+  </si>
+  <si>
+    <t>Scrum Master Senior</t>
+  </si>
+  <si>
+    <t>Analista de Negócios em TI Sênior</t>
+  </si>
+  <si>
+    <t>Engenheiro Mecânico</t>
+  </si>
+  <si>
+    <t>Analista de Risco de Mercado Senior</t>
+  </si>
+  <si>
+    <t>Analista de Gestão de Riscos Junior</t>
+  </si>
+  <si>
+    <t>Analista de Monitoramento de Mercado Sr</t>
+  </si>
+  <si>
+    <t>Analista de Controles Internos Jr.</t>
+  </si>
+  <si>
+    <t>Analista de Gestão de Mudanças em TI</t>
+  </si>
+  <si>
+    <t>Estágio em Gestão de Riscos</t>
+  </si>
+  <si>
+    <t>CONSULTOR TECNICO ONCOLOGIA PL - ( GOIÂNIA/BRASÍLIA )</t>
+  </si>
+  <si>
+    <t>Gerente de Novos Negócios Comerciais</t>
+  </si>
+  <si>
+    <t>Assessor Sênior - Impostos Indiretos</t>
+  </si>
+  <si>
+    <t>XP Investimentos
+61 avaliações</t>
+  </si>
+  <si>
+    <t>Petrópolis, RJ</t>
+  </si>
+  <si>
+    <t>Mongeral
+2 avaliações</t>
+  </si>
+  <si>
+    <t>Seleção Profissional</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro, RJ</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young OM
+5,751 avaliações</t>
+  </si>
+  <si>
+    <t>Robert Half
+7,019 avaliações</t>
+  </si>
+  <si>
+    <t>Talenses
+2 avaliações</t>
   </si>
   <si>
     <t>São Paulo, SP</t>
   </si>
   <si>
+    <t>Agentes Autônomos - XP Investimentos</t>
+  </si>
+  <si>
+    <t>Bild
+6 avaliações</t>
+  </si>
+  <si>
+    <t>Citi
+14,805 avaliações</t>
+  </si>
+  <si>
+    <t>Ventura Tec</t>
+  </si>
+  <si>
+    <t>BNP Paribas
+2,594 avaliações</t>
+  </si>
+  <si>
+    <t>Easynvest</t>
+  </si>
+  <si>
+    <t>GuiaBolso
+2 avaliações</t>
+  </si>
+  <si>
+    <t>Tienda Nube | Nuvem Shop</t>
+  </si>
+  <si>
+    <t>Loggi
+2 avaliações</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>Rico
+22 avaliações</t>
+  </si>
+  <si>
+    <t>Cabot Corporation
+86 avaliações</t>
+  </si>
+  <si>
+    <t>Takeda Pharmaceutical
+565 avaliações</t>
+  </si>
+  <si>
+    <t>Franklin Templeton Investments
+541 avaliações</t>
+  </si>
+  <si>
+    <t>Uber
+471 avaliações</t>
+  </si>
+  <si>
+    <t>OM Partners</t>
+  </si>
+  <si>
+    <t>Eurofins
+702 avaliações</t>
+  </si>
+  <si>
+    <t>Lenovo
+866 avaliações</t>
+  </si>
+  <si>
+    <t>FTI Consulting, Inc.
+155 avaliações</t>
+  </si>
+  <si>
+    <t>Agfa-Gevaert NV</t>
+  </si>
+  <si>
+    <t>Lightsource Renewable Energy</t>
+  </si>
+  <si>
+    <t>Magnetis</t>
+  </si>
+  <si>
+    <t>Start Up Consultoria em Recursos Humanos Ltda</t>
+  </si>
+  <si>
+    <t>McKinsey &amp; Company
+420 avaliações</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline
+3,436 avaliações</t>
+  </si>
+  <si>
+    <t>Aker Solutions
+646 avaliações</t>
+  </si>
+  <si>
+    <t>Intelsat</t>
+  </si>
+  <si>
+    <t>ENGIE BRASIL PARTICIPAÇÕES</t>
+  </si>
+  <si>
+    <t>DALET</t>
+  </si>
+  <si>
+    <t>WeWork</t>
+  </si>
+  <si>
+    <t>Epson America, Inc
+71 avaliações</t>
+  </si>
+  <si>
+    <t>BP
+2,562 avaliações</t>
+  </si>
+  <si>
+    <t>Wirecard Brasil</t>
+  </si>
+  <si>
+    <t>Atos
+1,898 avaliações</t>
+  </si>
+  <si>
+    <t>Bank of America
+25,844 avaliações</t>
+  </si>
+  <si>
+    <t>DSM Nutritional Products
+172 avaliações</t>
+  </si>
+  <si>
+    <t>Boston Scientific Corporation
+1,033 avaliações</t>
+  </si>
+  <si>
+    <t>Cubico Sustainable Investments</t>
+  </si>
+  <si>
+    <t>Perrigo Company</t>
+  </si>
+  <si>
+    <t>HAYS
+628 avaliações</t>
+  </si>
+  <si>
+    <t>The Nature Conservancy
+127 avaliações</t>
+  </si>
+  <si>
+    <t>Goldman Sachs
+1,257 avaliações</t>
+  </si>
+  <si>
+    <t>UBS
+1,701 avaliações</t>
+  </si>
+  <si>
+    <t>PetroRio</t>
+  </si>
+  <si>
+    <t>Previdência</t>
+  </si>
+  <si>
+    <t>XP investimentos
+61 avaliações</t>
+  </si>
+  <si>
+    <t>Michael Page
+174 avaliações</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young OM</t>
+  </si>
+  <si>
+    <t>Oi
+1,686 avaliações</t>
+  </si>
+  <si>
+    <t>Seleção Engenharia</t>
+  </si>
+  <si>
+    <t>L'Oréal
+2,046 avaliações</t>
+  </si>
+  <si>
+    <t>ABB
+3,131 avaliações</t>
+  </si>
+  <si>
+    <t>L'Oreal USA
+902 avaliações</t>
+  </si>
+  <si>
+    <t>Wood Mackenzie
+31 avaliações</t>
+  </si>
+  <si>
+    <t>Carta</t>
+  </si>
+  <si>
+    <t>Philip Morris International
+1,066 avaliações</t>
+  </si>
+  <si>
+    <t>British American Tobacco
+1,464 avaliações</t>
+  </si>
+  <si>
+    <t>Decathlon
+3,121 avaliações</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group
+14,071 avaliações</t>
+  </si>
+  <si>
+    <t>BUICK LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>O EMPREGADOR</t>
+  </si>
+  <si>
+    <t>Engenha</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific
+2,117 avaliações</t>
+  </si>
+  <si>
+    <t>Cervejaria Ambev
+15 avaliações</t>
+  </si>
+  <si>
+    <t>HUB FINTECH</t>
+  </si>
+  <si>
+    <t>C6 Bank</t>
+  </si>
+  <si>
+    <t>Matera Systems
+4 avaliações</t>
+  </si>
+  <si>
+    <t>Continental
+2,064 avaliações</t>
+  </si>
+  <si>
+    <t>Senior Solution
+13 avaliações</t>
+  </si>
+  <si>
+    <t>EY
+5,751 avaliações</t>
+  </si>
+  <si>
+    <t>Movida
+11 avaliações</t>
+  </si>
+  <si>
+    <t>Distribuidora Apolo de Cosmeticos</t>
+  </si>
+  <si>
+    <t>Banco Fibra - Recrutamento Externo</t>
+  </si>
+  <si>
+    <t>Laurence Simons</t>
+  </si>
+  <si>
+    <t>ENEL ENERGIA SPA</t>
+  </si>
+  <si>
+    <t>Mori Energia Solar</t>
+  </si>
+  <si>
+    <t>IQVIA
+152 avaliações</t>
+  </si>
+  <si>
+    <t>Welch Allyn
+140 avaliações</t>
+  </si>
+  <si>
+    <t>Cognizant
+10,618 avaliações</t>
+  </si>
+  <si>
+    <t>Connekt</t>
+  </si>
+  <si>
+    <t>Finaxis</t>
+  </si>
+  <si>
+    <t>CCEE
+13 avaliações</t>
+  </si>
+  <si>
+    <t>Stelo
+2 avaliações</t>
+  </si>
+  <si>
+    <t>GMUD Tecnologia
+5 avaliações</t>
+  </si>
+  <si>
+    <t>Novartis
+2,810 avaliações</t>
+  </si>
+  <si>
+    <t>Bauru, SP</t>
+  </si>
+  <si>
+    <t>Santana de Parnaíba, SP</t>
+  </si>
+  <si>
+    <t>Ribeirão Preto, SP</t>
+  </si>
+  <si>
+    <t>São José do Rio Preto, SP</t>
+  </si>
+  <si>
+    <t>Campinas, SP</t>
+  </si>
+  <si>
+    <t>Mauá, SP</t>
+  </si>
+  <si>
+    <t>Jaguariúna, SP</t>
+  </si>
+  <si>
+    <t>Indaiatuba, SP</t>
+  </si>
+  <si>
+    <t>Pinheiros, SP</t>
+  </si>
+  <si>
+    <t>Rio das Ostras, RJ</t>
+  </si>
+  <si>
+    <t>Itaim Bibi, SP</t>
+  </si>
+  <si>
+    <t>Barueri, SP</t>
+  </si>
+  <si>
+    <t>Avenida Brigadeiro Faria Lima, SP</t>
+  </si>
+  <si>
+    <t>Bela Vista, SP</t>
+  </si>
+  <si>
+    <t>São Gonçalo, RJ</t>
+  </si>
+  <si>
+    <t>Itu, SP</t>
+  </si>
+  <si>
+    <t>Bragança Paulista, SP</t>
+  </si>
+  <si>
+    <t>Várzea Paulista, SP</t>
+  </si>
+  <si>
+    <t>Mogi das Cruzes, SP</t>
+  </si>
+  <si>
     <t>Franca, SP</t>
   </si>
   <si>
-    <t>Zona Norte de São Paulo, SP</t>
-  </si>
-  <si>
-    <t>Monte Azul Paulista, SP</t>
-  </si>
-  <si>
-    <t>Bauru, SP</t>
-  </si>
-  <si>
-    <t>Santa Cruz do Rio Pardo, SP</t>
-  </si>
-  <si>
-    <t>Campinas, SP</t>
-  </si>
-  <si>
-    <t>Batatais, SP</t>
-  </si>
-  <si>
-    <t>Barueri, SP</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/KPMG/jobs/Auxiliar-Opera%C3%A7%C3%B5es-a8cb0bd9fe0cc5c9?sjdu=Zzi_VW2ygsY1fzh3Ma9ZsE4zIT1NTXCwgFBhdjeTC3MzqTZm0DMcalQoIM0L7Gw9_maqLifPvsen4oBBKlQGlw&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/ICOBIT-IMPERMEABILIZANTES-LTDA/jobs/Analista-Financeiro-e9d80225810df4df?sjdu=QwrRXKrqZ3CNX5W-O9jEvW21guO1sIF_6B0yTE8K9FsQt2n5hKk-IgqjxExy5HBoYZo9ZsyYjlb9ep2Xq_v8vgCRhe0p55ZN3_ty5KeZDnw&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/Confidencial-Servi%C3%A7os-LTDA/jobs/Analista-Financeiro-57d32b0ef111a688?sjdu=QwrRXKrqZ3CNX5W-O9jEvW21guO1sIF_6B0yTE8K9FsQt2n5hKk-IgqjxExy5HBocjdHr-4OZpa1Kggjn4K5Muz0zeSTdp_UDdj5syYlXWw&amp;vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/Hora-da-Despedida/jobs/Estagi%C3%A1rio-Financeiro-002c2a35d4465384?sjdu=QwrRXKrqZ3CNX5W-O9jEveKQVK3UvlMjsxdtrgX92pawsVjdhhkqizbHhAMY7XMBIgUbkF_ha0jmsvIo-IHp-vy-yaYFcCvC5Jfxxd0z14g&amp;vjs=3</t>
+    <t>Alphaville, SP</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-2ea43e92fc2345d7?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=392b5be12baeff82&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=2c494f0506246852&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=dd3fc9509d9320c7&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=501635bb01682cc5&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=cedeea50dbf1bc73&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=2a3f5d5ef285ca55&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=852ada085afbe023&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=6f5731e4c96d2e72&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=a46b89de4410c5c8&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-f14133153cf5bc91?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=fcb06140e06caf69&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=363042e337ef8ecc&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/Agentes-Aut%C3%B4nomos---XP-Investimentos/jobs/Assessor-Investimentos-745e4d9c65f06fc8?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=8c33a2a009014148&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=7b142f323e28b178&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=66dce32c9d90ec01&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=d099ddb2bf628d7c&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=a0b0132dbe645664&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=7ebd955597866c76&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=07ca41970dd1acc0&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c5bededdc7db1461&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=54bfceb7b2324363&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-fb95ac3ff024421f?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=405dc9d8eb194b3f&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=94f775026ee1eff0&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=cee7d4a127e62c00&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=8b1303caaf3bd040&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=5250838b14e67f24&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c65593bfce6a622d&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c731197e82b2e30e&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-023ede07a76d33ef?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f9e953dd8ff2f2e0&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=a07ddf17359a9c57&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=20634f49cf75a892&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=43d44fd259f57bea&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=ea130829067c2ff6&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=8795ae67c15c0b68&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f9e953dd8ff2f2e0&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c76638b84ab4d470&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=519925b5ee3a3ff0&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=a0d3c3866fef8e40&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=35d2ab757fea8c08&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=eeb30b1317cb2d11&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=9a20864517aba74c&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=0d6d7c9e1378dced&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=cc017c61d520b3d3&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c4931158b05344d4&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=96d84d3a1d2087cb&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=ef69f24fb9ed5a03&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=78dda8d9664fcd59&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=a2134284424e7cc4&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=a312de69da2b9d45&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=39d3e9456cdb384a&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=737941fde50a2e8f&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=744fb98df94ad292&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=ae5496be0302a7d6&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=850dbe2d22c4a78c&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=2d69e7d93abf9e19&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=9f48eef28da60a76&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=06db87ef5b28e3b1&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=3c5c4a3a55893132&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=0cca4a45eb0beda7&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=87c1808e3384c0ea&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c269a4df0628f848&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=6115d5710b8cee93&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=907bddf2cfc21b4c&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=429f9486b1524561&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=2184847589c86286&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=de04ec442b99569b&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=233342fd840267dc&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=87c1808e3384c0ea&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=8f8cf1aa5f381cae&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=e8b6f896875448c2&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=acfd1a5345cc3ff1&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/Previd%C3%AAncia/jobs/Estagi%C3%A1rio-Investimento-094d23fd2cfb67a7?vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-075fc5446b2559d9?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f6cb0168b20f8157&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=cab4a8ed3214d46b&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-f2a2c2313a38c193?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=7c34ac2a669948c9&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=0c3df77615110321&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=3dfa4291ce4a0c17&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=6b72f83fd2613c00&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=7056cfee800ae9e9&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=00e8438271a25953&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f1a7cc8bfa75a9e2&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=ff11a14fefed78fb&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c036cf7716807e61&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c5f36197b52b7452&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=cda054c5d67de327&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f84c5cef82843814&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=e5a4a790fa323fe9&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=8c1c0b63618f7049&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=23789bafb21bee0f&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=877e41cc323abd29&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=274b8e89d5af1d37&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=5016d35f933b21da&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=aadc0a50b9977793&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c848bdec710280f8&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=00af623370c44471&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=4fdbb28b2f71601d&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=21d23dff154e0317&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f02a41bb2ccc055a&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=ba179a4e7f2fe3da&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=b9b215d94373952c&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=32ad87d0b6300c30&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/BUICK-LOG%C3%8DSTICA/jobs/Assistente-Gerenciamento-Risco-9589ebdb84368900?vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=868d2b061fe13309&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/O-EMPREGADOR/jobs/Gerente-Controladoria-b5358a03db861151?vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=9d4572def8568cae&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c8211bd88e95df75&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=ad80dff43c7e2bb9&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=cfe3d6ea1c497a49&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/Hub-Fintech-Gest%C3%A3o-de-Sistemas-Ltda./jobs/Analista-Risco-Junior-249290e580e8e80d?vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=718a68c569fd11d3&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=741302e737042577&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f37abf1499cae154&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/ver-emprego?jk=49855a175240e0e7&amp;from=serp&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=5890ec7298c70728&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/ver-emprego?jk=eaf5d01b5807cce9&amp;from=serp&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=4d73950f7777feb8&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=798870b9e9a8adf5&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-32f297bab5eb4efc?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=d66a41c48785d62c&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=e425668da0b0ae2b&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=de5177068f720be0&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/XP-Investimentos/jobs/Assessor-Investimentos-0bb676e9aa083359?sjdu=6WON_Rrw_LsSY83QuQyX-UwZivYNNTaxmrfik93moGw_Zsqh86_FqJutaIiFMgRYXtnG9rlKofJymr5lhYSpWg&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=df63bb33525bd12e&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=fcb06140e06caf69&amp;from=vj&amp;pos=top</t>
   </si>
   <si>
     <t>https://www.indeed.com.br/rc/clk?jk=e4cbe490df66a116&amp;from=vj&amp;pos=top&amp;spon=1</t>
   </si>
   <si>
-    <t>https://www.indeed.com.br/cmp/KPMG/jobs/Auxiliar-Opera%C3%A7%C3%B5es-a8cb0bd9fe0cc5c9?vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/ALLURI---UNIFORMES/jobs/Caixa-38d4214dc063412d?vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/Ita%C3%BA-Unibanco/jobs/Caixa-09a151c64e225ff5?vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/rc/clk?jk=1e671e3b614ac6d2&amp;from=vj&amp;pos=top</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/Assess-Casa-Ourinhos/jobs/Financeiro-401d00c743a8c111?vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/Talch%C3%A1/jobs/Operador-Caixa-c65ac5b0f7ae2ac2?vjs=3</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/rc/clk?jk=44871c879f927184&amp;from=vj&amp;pos=top</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/rc/clk?jk=6327a3a8d958271c&amp;from=vj&amp;pos=top</t>
-  </si>
-  <si>
-    <t>https://www.indeed.com.br/cmp/Varejo-Farmac%C3%AAutico/jobs/Atendente-Loja-03f482d31b1d242c?vjs=3</t>
+    <t>https://www.indeed.com.br/cmp/Ventura-Tec/jobs/Agile-Master-f633a127404928c7?sjdu=QwrRXKrqZ3CNX5W-O9jEvc_aC2IlPu0iEN3OkBTnkzgo8e2aLTjUtlnKiNVM5DKzHbcLzOLE-NGglH3Wc4LLfA&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=a49d0547860210de&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/Ventura-Tec/jobs/Desenvolvedor-Front-End-83a0cb6b21307ef5?sjdu=QwrRXKrqZ3CNX5W-O9jEvQ3e2QkuoRwOjBLu09RK-kRnziG2xQ_yvLhuH_emxEvj6Hl2NY0B_Ht-a2re6ohSVaDBrJKMQmHAlHFG6L51M1Q0Nm_SJd9fWSAsMFSKnXIb&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=dc0689a3f2b04ca8&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=3184738dc31573a6&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=f187f1146c8ec500&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=4943e046abb84900&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=73412b8a0f78723d&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c5c14287d23b6bfb&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=ab42eacadd7da729&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=c75d8ddd9be1c020&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=b29abd12dc65545b&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=4068b3173e9c66b9&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=df73e4c6a4d927a1&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=bb510c542d2f9a75&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=7c71f4d90eab00f3&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=fde88bd345b0091d&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=8a3fd1e1bd0c7750&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=5f2f13da7a8c62ba&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=667ab243f6816a10&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=654cefcb464914ea&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=be3e74d8e0edaf7b&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=2ef37f25536bdc1e&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=d66c6d826b66ba8c&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=33fe2ada3a4c285a&amp;from=vj&amp;pos=top&amp;spon=1</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=de819d22e2b1547f&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/Finaxis/jobs/Analista-Gest%C3%A3o-Riscos-Junior-3dc7ae87cc2b5666?vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/ver-emprego?jk=8db3922d200f068e&amp;from=serp&amp;vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=e8ef3ef963507df0&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/GMUD-TECNOLOGIA/jobs/Analista-Gest%C3%A3o-Mudan%C3%A7as-Ti-d3781db13686503e?vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/cmp/Fianxis/jobs/Est%C3%A1gio-Gest%C3%A3o-Riscos-2e2329cd4bb42988?vjs=3</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=8381a430a7f458e1&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=274aec987a459b6c&amp;from=vj&amp;pos=top</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com.br/rc/clk?jk=37e2ae518e96e227&amp;from=vj&amp;pos=top</t>
   </si>
 </sst>
 </file>
@@ -540,7 +1745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,240 +1767,3783 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>198</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>197</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>195</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>191</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>190</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>186</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>179</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>176</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>175</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>171</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>166</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>165</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>162</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>148</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>143</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>142</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>141</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>139</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>137</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>160</v>
+      </c>
+      <c r="D91" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>136</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>135</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>134</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>133</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>132</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96" t="s">
+        <v>263</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>156</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>129</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>210</v>
+      </c>
+      <c r="D99" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>128</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>127</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>126</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>124</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>123</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>122</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>121</v>
+      </c>
+      <c r="B107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" t="s">
+        <v>203</v>
+      </c>
+      <c r="D107" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+      <c r="D108" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="s">
+        <v>159</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" t="s">
+        <v>159</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" t="s">
+        <v>159</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>110</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>159</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" t="s">
+        <v>159</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>108</v>
+      </c>
+      <c r="B120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" t="s">
+        <v>210</v>
+      </c>
+      <c r="D120" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>210</v>
+      </c>
+      <c r="D121" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>106</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>105</v>
+      </c>
+      <c r="B123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>159</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>104</v>
+      </c>
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+      <c r="C124" t="s">
+        <v>159</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" t="s">
+        <v>218</v>
+      </c>
+      <c r="D125" t="s">
+        <v>159</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>102</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>101</v>
+      </c>
+      <c r="B127" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" t="s">
+        <v>219</v>
+      </c>
+      <c r="D127" t="s">
+        <v>159</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>100</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>99</v>
+      </c>
+      <c r="B129" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" t="s">
+        <v>159</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>97</v>
+      </c>
+      <c r="B131" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>96</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>160</v>
+      </c>
+      <c r="D132" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>95</v>
+      </c>
+      <c r="B133" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" t="s">
+        <v>215</v>
+      </c>
+      <c r="D133" t="s">
+        <v>159</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>94</v>
+      </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C134" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" t="s">
+        <v>159</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>93</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>92</v>
+      </c>
+      <c r="B136" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>91</v>
+      </c>
+      <c r="B137" t="s">
+        <v>95</v>
+      </c>
+      <c r="C137" t="s">
+        <v>203</v>
+      </c>
+      <c r="D137" t="s">
+        <v>163</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>90</v>
+      </c>
+      <c r="B138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C138" t="s">
+        <v>203</v>
+      </c>
+      <c r="D138" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>89</v>
+      </c>
+      <c r="B139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" t="s">
+        <v>203</v>
+      </c>
+      <c r="D139" t="s">
+        <v>163</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>88</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" t="s">
+        <v>253</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>87</v>
+      </c>
+      <c r="B141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" t="s">
+        <v>255</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>86</v>
+      </c>
+      <c r="B142" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D142" t="s">
+        <v>264</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>85</v>
+      </c>
+      <c r="B143" t="s">
+        <v>101</v>
+      </c>
+      <c r="C143" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" t="s">
+        <v>253</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>84</v>
+      </c>
+      <c r="B144" t="s">
+        <v>102</v>
+      </c>
+      <c r="C144" t="s">
+        <v>224</v>
+      </c>
+      <c r="D144" t="s">
+        <v>265</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>83</v>
+      </c>
+      <c r="B145" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" t="s">
+        <v>256</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>82</v>
+      </c>
+      <c r="B146" t="s">
+        <v>104</v>
+      </c>
+      <c r="C146" t="s">
+        <v>226</v>
+      </c>
+      <c r="D146" t="s">
+        <v>163</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>81</v>
+      </c>
+      <c r="B147" t="s">
+        <v>105</v>
+      </c>
+      <c r="C147" t="s">
+        <v>227</v>
+      </c>
+      <c r="D147" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>80</v>
+      </c>
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" t="s">
+        <v>160</v>
+      </c>
+      <c r="D148" t="s">
+        <v>253</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>79</v>
+      </c>
+      <c r="B149" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" t="s">
+        <v>228</v>
+      </c>
+      <c r="D149" t="s">
+        <v>260</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>108</v>
+      </c>
+      <c r="C150" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" t="s">
+        <v>255</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>77</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>76</v>
+      </c>
+      <c r="B152" t="s">
+        <v>109</v>
+      </c>
+      <c r="C152" t="s">
+        <v>229</v>
+      </c>
+      <c r="D152" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>75</v>
+      </c>
+      <c r="B153" t="s">
+        <v>110</v>
+      </c>
+      <c r="C153" t="s">
+        <v>229</v>
+      </c>
+      <c r="D153" t="s">
+        <v>163</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>74</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>73</v>
+      </c>
+      <c r="B155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" t="s">
+        <v>230</v>
+      </c>
+      <c r="D155" t="s">
+        <v>163</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>72</v>
+      </c>
+      <c r="B156" t="s">
+        <v>112</v>
+      </c>
+      <c r="C156" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156" t="s">
+        <v>266</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>71</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" t="s">
+        <v>163</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>70</v>
+      </c>
+      <c r="B158" t="s">
+        <v>114</v>
+      </c>
+      <c r="C158" t="s">
+        <v>232</v>
+      </c>
+      <c r="D158" t="s">
+        <v>163</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>69</v>
+      </c>
+      <c r="B159" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>68</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>155</v>
+      </c>
+      <c r="D160" t="s">
+        <v>267</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>67</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" t="s">
+        <v>163</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>66</v>
+      </c>
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" t="s">
+        <v>163</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>65</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D163" t="s">
+        <v>250</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>64</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" t="s">
+        <v>168</v>
+      </c>
+      <c r="D164" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>63</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" t="s">
+        <v>165</v>
+      </c>
+      <c r="D165" t="s">
+        <v>251</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>62</v>
+      </c>
+      <c r="B166" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" t="s">
+        <v>163</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>61</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>167</v>
+      </c>
+      <c r="D167" t="s">
+        <v>163</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>60</v>
+      </c>
+      <c r="B168" t="s">
+        <v>116</v>
+      </c>
+      <c r="C168" t="s">
+        <v>233</v>
+      </c>
+      <c r="D168" t="s">
+        <v>163</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>59</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>170</v>
+      </c>
+      <c r="D169" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>58</v>
+      </c>
+      <c r="B170" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="D170" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" t="s">
+        <v>171</v>
+      </c>
+      <c r="D171" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>56</v>
+      </c>
+      <c r="B172" t="s">
+        <v>118</v>
+      </c>
+      <c r="C172" t="s">
+        <v>211</v>
+      </c>
+      <c r="D172" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>55</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>209</v>
+      </c>
+      <c r="D173" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>54</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>162</v>
+      </c>
+      <c r="D174" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>53</v>
+      </c>
+      <c r="B175" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>52</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>164</v>
+      </c>
+      <c r="D176" t="s">
+        <v>250</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>51</v>
+      </c>
+      <c r="B177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" t="s">
+        <v>168</v>
+      </c>
+      <c r="D177" t="s">
+        <v>163</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>50</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>165</v>
+      </c>
+      <c r="D178" t="s">
+        <v>251</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>49</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>167</v>
+      </c>
+      <c r="D179" t="s">
+        <v>163</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>48</v>
+      </c>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>163</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>47</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>170</v>
+      </c>
+      <c r="D181" t="s">
+        <v>163</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>46</v>
+      </c>
+      <c r="B182" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182" t="s">
+        <v>233</v>
+      </c>
+      <c r="D182" t="s">
+        <v>163</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>45</v>
+      </c>
+      <c r="B183" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" t="s">
+        <v>166</v>
+      </c>
+      <c r="D183" t="s">
+        <v>163</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>44</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>162</v>
+      </c>
+      <c r="D184" t="s">
+        <v>163</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>43</v>
+      </c>
+      <c r="B185" t="s">
+        <v>117</v>
+      </c>
+      <c r="C185" t="s">
+        <v>171</v>
+      </c>
+      <c r="D185" t="s">
+        <v>163</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>42</v>
+      </c>
+      <c r="B186" t="s">
+        <v>119</v>
+      </c>
+      <c r="C186" t="s">
+        <v>234</v>
+      </c>
+      <c r="D186" t="s">
+        <v>268</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>41</v>
+      </c>
+      <c r="B187" t="s">
+        <v>120</v>
+      </c>
+      <c r="C187" t="s">
+        <v>235</v>
+      </c>
+      <c r="D187" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>40</v>
+      </c>
+      <c r="B188" t="s">
+        <v>121</v>
+      </c>
+      <c r="C188" t="s">
+        <v>167</v>
+      </c>
+      <c r="D188" t="s">
+        <v>163</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>39</v>
+      </c>
+      <c r="B189" t="s">
+        <v>122</v>
+      </c>
+      <c r="C189" t="s">
+        <v>162</v>
+      </c>
+      <c r="D189" t="s">
+        <v>163</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>38</v>
+      </c>
+      <c r="B190" t="s">
+        <v>123</v>
+      </c>
+      <c r="C190" t="s">
+        <v>167</v>
+      </c>
+      <c r="D190" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>37</v>
+      </c>
+      <c r="B191" t="s">
+        <v>124</v>
+      </c>
+      <c r="C191" t="s">
+        <v>162</v>
+      </c>
+      <c r="D191" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>36</v>
+      </c>
+      <c r="B192" t="s">
+        <v>125</v>
+      </c>
+      <c r="C192" t="s">
+        <v>236</v>
+      </c>
+      <c r="D192" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>35</v>
+      </c>
+      <c r="B193" t="s">
+        <v>126</v>
+      </c>
+      <c r="C193" t="s">
+        <v>236</v>
+      </c>
+      <c r="D193" t="s">
+        <v>163</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>34</v>
+      </c>
+      <c r="B194" t="s">
+        <v>127</v>
+      </c>
+      <c r="C194" t="s">
+        <v>163</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>33</v>
+      </c>
+      <c r="B195" t="s">
+        <v>128</v>
+      </c>
+      <c r="C195" t="s">
+        <v>163</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>32</v>
+      </c>
+      <c r="B196" t="s">
+        <v>129</v>
+      </c>
+      <c r="C196" t="s">
+        <v>237</v>
+      </c>
+      <c r="D196" t="s">
+        <v>163</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>31</v>
+      </c>
+      <c r="B197" t="s">
+        <v>130</v>
+      </c>
+      <c r="C197" t="s">
+        <v>196</v>
+      </c>
+      <c r="D197" t="s">
+        <v>163</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>30</v>
+      </c>
+      <c r="B198" t="s">
+        <v>131</v>
+      </c>
+      <c r="C198" t="s">
+        <v>160</v>
+      </c>
+      <c r="D198" t="s">
+        <v>163</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>29</v>
+      </c>
+      <c r="B199" t="s">
+        <v>132</v>
+      </c>
+      <c r="C199" t="s">
+        <v>163</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>28</v>
+      </c>
+      <c r="B200" t="s">
+        <v>133</v>
+      </c>
+      <c r="C200" t="s">
+        <v>160</v>
+      </c>
+      <c r="D200" t="s">
+        <v>163</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>27</v>
+      </c>
+      <c r="B201" t="s">
+        <v>134</v>
+      </c>
+      <c r="C201" t="s">
+        <v>203</v>
+      </c>
+      <c r="D201" t="s">
+        <v>163</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>26</v>
+      </c>
+      <c r="B202" t="s">
+        <v>135</v>
+      </c>
+      <c r="C202" t="s">
+        <v>160</v>
+      </c>
+      <c r="D202" t="s">
+        <v>163</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>25</v>
+      </c>
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" t="s">
+        <v>183</v>
+      </c>
+      <c r="D203" t="s">
+        <v>163</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>24</v>
+      </c>
+      <c r="B204" t="s">
+        <v>136</v>
+      </c>
+      <c r="C204" t="s">
+        <v>160</v>
+      </c>
+      <c r="D204" t="s">
+        <v>163</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s">
+        <v>39</v>
+      </c>
+      <c r="C205" t="s">
+        <v>182</v>
+      </c>
+      <c r="D205" t="s">
+        <v>163</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>22</v>
+      </c>
+      <c r="B206" t="s">
+        <v>118</v>
+      </c>
+      <c r="C206" t="s">
+        <v>160</v>
+      </c>
+      <c r="D206" t="s">
+        <v>163</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>21</v>
+      </c>
+      <c r="B207" t="s">
+        <v>137</v>
+      </c>
+      <c r="C207" t="s">
+        <v>160</v>
+      </c>
+      <c r="D207" t="s">
+        <v>163</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>20</v>
+      </c>
+      <c r="B208" t="s">
+        <v>138</v>
+      </c>
+      <c r="C208" t="s">
+        <v>238</v>
+      </c>
+      <c r="D208" t="s">
+        <v>163</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" t="s">
+        <v>170</v>
+      </c>
+      <c r="D209" t="s">
+        <v>163</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>18</v>
+      </c>
+      <c r="B210" t="s">
+        <v>139</v>
+      </c>
+      <c r="C210" t="s">
+        <v>239</v>
+      </c>
+      <c r="D210" t="s">
+        <v>163</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>17</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>155</v>
+      </c>
+      <c r="D211" t="s">
+        <v>253</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>16</v>
+      </c>
+      <c r="B212" t="s">
+        <v>140</v>
+      </c>
+      <c r="C212" t="s">
+        <v>240</v>
+      </c>
+      <c r="D212" t="s">
+        <v>163</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>15</v>
+      </c>
+      <c r="B213" t="s">
+        <v>141</v>
+      </c>
+      <c r="C213" t="s">
+        <v>161</v>
+      </c>
+      <c r="D213" t="s">
+        <v>163</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>142</v>
+      </c>
+      <c r="C214" t="s">
+        <v>241</v>
+      </c>
+      <c r="D214" t="s">
+        <v>163</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>13</v>
+      </c>
+      <c r="B215" t="s">
+        <v>143</v>
+      </c>
+      <c r="C215" t="s">
+        <v>242</v>
+      </c>
+      <c r="D215" t="s">
+        <v>163</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>144</v>
+      </c>
+      <c r="C216" t="s">
+        <v>243</v>
+      </c>
+      <c r="D216" t="s">
+        <v>163</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s">
+        <v>121</v>
+      </c>
+      <c r="C217" t="s">
+        <v>167</v>
+      </c>
+      <c r="D217" t="s">
+        <v>163</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>145</v>
+      </c>
+      <c r="C218" t="s">
+        <v>213</v>
+      </c>
+      <c r="D218" t="s">
+        <v>256</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" t="s">
+        <v>203</v>
+      </c>
+      <c r="D219" t="s">
+        <v>163</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>146</v>
+      </c>
+      <c r="C220" t="s">
+        <v>229</v>
+      </c>
+      <c r="D220" t="s">
+        <v>163</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>7</v>
+      </c>
+      <c r="B221" t="s">
+        <v>147</v>
+      </c>
+      <c r="C221" t="s">
+        <v>244</v>
+      </c>
+      <c r="D221" t="s">
+        <v>163</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>148</v>
+      </c>
+      <c r="C222" t="s">
+        <v>245</v>
+      </c>
+      <c r="D222" t="s">
+        <v>163</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>149</v>
+      </c>
+      <c r="C223" t="s">
+        <v>246</v>
+      </c>
+      <c r="D223" t="s">
+        <v>260</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>150</v>
+      </c>
+      <c r="C224" t="s">
+        <v>247</v>
+      </c>
+      <c r="D224" t="s">
+        <v>269</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>3</v>
+      </c>
+      <c r="B225" t="s">
+        <v>151</v>
+      </c>
+      <c r="C225" t="s">
+        <v>244</v>
+      </c>
+      <c r="D225" t="s">
+        <v>163</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>152</v>
+      </c>
+      <c r="C226" t="s">
+        <v>248</v>
+      </c>
+      <c r="D226" t="s">
+        <v>163</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>153</v>
+      </c>
+      <c r="C227" t="s">
+        <v>222</v>
+      </c>
+      <c r="D227" t="s">
+        <v>163</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
+      <c r="B228" t="s">
+        <v>154</v>
+      </c>
+      <c r="C228" t="s">
+        <v>160</v>
+      </c>
+      <c r="D228" t="s">
+        <v>163</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -814,6 +5562,218 @@
     <hyperlink ref="E13" r:id="rId12"/>
     <hyperlink ref="E14" r:id="rId13"/>
     <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="E168" r:id="rId167"/>
+    <hyperlink ref="E169" r:id="rId168"/>
+    <hyperlink ref="E170" r:id="rId169"/>
+    <hyperlink ref="E171" r:id="rId170"/>
+    <hyperlink ref="E172" r:id="rId171"/>
+    <hyperlink ref="E173" r:id="rId172"/>
+    <hyperlink ref="E174" r:id="rId173"/>
+    <hyperlink ref="E175" r:id="rId174"/>
+    <hyperlink ref="E176" r:id="rId175"/>
+    <hyperlink ref="E177" r:id="rId176"/>
+    <hyperlink ref="E178" r:id="rId177"/>
+    <hyperlink ref="E179" r:id="rId178"/>
+    <hyperlink ref="E180" r:id="rId179"/>
+    <hyperlink ref="E181" r:id="rId180"/>
+    <hyperlink ref="E182" r:id="rId181"/>
+    <hyperlink ref="E183" r:id="rId182"/>
+    <hyperlink ref="E184" r:id="rId183"/>
+    <hyperlink ref="E185" r:id="rId184"/>
+    <hyperlink ref="E186" r:id="rId185"/>
+    <hyperlink ref="E188" r:id="rId186"/>
+    <hyperlink ref="E189" r:id="rId187"/>
+    <hyperlink ref="E190" r:id="rId188"/>
+    <hyperlink ref="E191" r:id="rId189"/>
+    <hyperlink ref="E192" r:id="rId190"/>
+    <hyperlink ref="E193" r:id="rId191"/>
+    <hyperlink ref="E194" r:id="rId192"/>
+    <hyperlink ref="E195" r:id="rId193"/>
+    <hyperlink ref="E196" r:id="rId194"/>
+    <hyperlink ref="E197" r:id="rId195"/>
+    <hyperlink ref="E198" r:id="rId196"/>
+    <hyperlink ref="E199" r:id="rId197"/>
+    <hyperlink ref="E200" r:id="rId198"/>
+    <hyperlink ref="E201" r:id="rId199"/>
+    <hyperlink ref="E202" r:id="rId200"/>
+    <hyperlink ref="E203" r:id="rId201"/>
+    <hyperlink ref="E204" r:id="rId202"/>
+    <hyperlink ref="E205" r:id="rId203"/>
+    <hyperlink ref="E206" r:id="rId204"/>
+    <hyperlink ref="E207" r:id="rId205"/>
+    <hyperlink ref="E208" r:id="rId206"/>
+    <hyperlink ref="E209" r:id="rId207"/>
+    <hyperlink ref="E210" r:id="rId208"/>
+    <hyperlink ref="E211" r:id="rId209"/>
+    <hyperlink ref="E212" r:id="rId210"/>
+    <hyperlink ref="E213" r:id="rId211"/>
+    <hyperlink ref="E214" r:id="rId212"/>
+    <hyperlink ref="E215" r:id="rId213"/>
+    <hyperlink ref="E216" r:id="rId214"/>
+    <hyperlink ref="E217" r:id="rId215"/>
+    <hyperlink ref="E218" r:id="rId216"/>
+    <hyperlink ref="E219" r:id="rId217"/>
+    <hyperlink ref="E220" r:id="rId218"/>
+    <hyperlink ref="E221" r:id="rId219"/>
+    <hyperlink ref="E222" r:id="rId220"/>
+    <hyperlink ref="E223" r:id="rId221"/>
+    <hyperlink ref="E224" r:id="rId222"/>
+    <hyperlink ref="E225" r:id="rId223"/>
+    <hyperlink ref="E226" r:id="rId224"/>
+    <hyperlink ref="E227" r:id="rId225"/>
+    <hyperlink ref="E228" r:id="rId226"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
